--- a/public/data_source/student_per_department_UG.xlsx
+++ b/public/data_source/student_per_department_UG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\elhawy\projects\seu_public_data\public\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A65C3-DD49-4659-9BDA-2C2644F48399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060512E0-5FF5-41BA-A2E7-6956B014DBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
